--- a/biology/Botanique/Farine_de_bois/Farine_de_bois.xlsx
+++ b/biology/Botanique/Farine_de_bois/Farine_de_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La farine de bois, ou poudre de bois, est une sciure de bois dont la finesse des particules varie entre la taille d'une fine poudre et celle de grains de riz. Il ne s'agit pas d'un produit alimentaire.
 </t>
